--- a/Documentation/План за миграция на Microsoft SQL Server.xlsx
+++ b/Documentation/План за миграция на Microsoft SQL Server.xlsx
@@ -688,10 +688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +977,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>